--- a/Assets/StreamingAssets/Excel/Story/Prologue.xlsx
+++ b/Assets/StreamingAssets/Excel/Story/Prologue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Downloads\UNR\CS 425\CS425-426\Assets\StreamingAssets\Excel\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92776B3-9AFC-4D1D-B607-B9F1F1D1358E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394B637D-EEFB-4277-918E-460BDC573533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Assets/StreamingAssets/Excel/Story/Prologue.xlsx
+++ b/Assets/StreamingAssets/Excel/Story/Prologue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Downloads\UNR\CS 425\CS425-426\Assets\StreamingAssets\Excel\Story\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNR Classes\CS 425\Unity Game\CS425-426\Assets\StreamingAssets\Excel\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394B637D-EEFB-4277-918E-460BDC573533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA334B3-FEBE-4537-AF2B-470D898AE713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>Humanity depends on it.</t>
   </si>
   <si>
-    <t>Wait(1f,LoadSceneByEnum("TempMap"));</t>
+    <t>Wait(1f,LoadSceneByEnum("GameStartScene"));</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Assets/StreamingAssets/Excel/Story/Prologue.xlsx
+++ b/Assets/StreamingAssets/Excel/Story/Prologue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNR Classes\CS 425\Unity Game\CS425-426\Assets\StreamingAssets\Excel\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA334B3-FEBE-4537-AF2B-470D898AE713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516A85B3-3188-4EB6-A9CB-2760D99143A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,15 +47,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t xml:space="preserve">You are a scientist named Peter, who works in a research facility that studies ways to reanimate animal tissue.  </t>
-  </si>
-  <si>
-    <t>During one experiment, a chemical compound you developed accidentally triggered a violent mutation, which exposed a contagious gas that spread outside the lab. Within days, the gas transformed most living creatures into zombies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amid the chaos, your former lab partner, Isaac, managed to create the foundation for a cure, but vanished before completing it. With the outbreak worsening, you must retrace their research, gather the remaining ingredients, and finish the cure yourself. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Your mission: To find your lab partner and finish making the cure. </t>
   </si>
   <si>
@@ -63,6 +54,15 @@
   </si>
   <si>
     <t>Wait(1f,LoadSceneByEnum("GameStartScene"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are a scientist named Peter, who works in a research facility that studies ways to reanimate animal tissue for medical breakthroughs.  </t>
+  </si>
+  <si>
+    <t>During one experiment, a chemical compound you developed accidentally triggered a violent mutation, creating a contagious gas that spread outside the lab. Within days, the gas transformed most living creatures into zombies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the outbreak, your former lab partner, Isaac, managed to create the foundation for a cure, but vanished before completing it. With the outbreak worsening, you must retrace Issac's research, gather the remaining ingredients, and finish the cure yourself. </t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,7 +409,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -445,10 +445,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excel/Story/Prologue.xlsx
+++ b/Assets/StreamingAssets/Excel/Story/Prologue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNR Classes\CS 425\Unity Game\CS425-426\Assets\StreamingAssets\Excel\Story\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Downloads\UNR\CS 425\CS425-426\Assets\StreamingAssets\Excel\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516A85B3-3188-4EB6-A9CB-2760D99143A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A1CD55-2C1C-4216-9566-518D16961AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Humanity depends on it.</t>
   </si>
   <si>
-    <t>Wait(1f,LoadSceneByEnum("GameStartScene"));</t>
-  </si>
-  <si>
     <t xml:space="preserve">You are a scientist named Peter, who works in a research facility that studies ways to reanimate animal tissue for medical breakthroughs.  </t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">During the outbreak, your former lab partner, Isaac, managed to create the foundation for a cure, but vanished before completing it. With the outbreak worsening, you must retrace Issac's research, gather the remaining ingredients, and finish the cure yourself. </t>
+  </si>
+  <si>
+    <t>SetStory(WakeUp);</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,7 +409,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -448,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
